--- a/test_ex.xlsx
+++ b/test_ex.xlsx
@@ -1,13 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DIT\GO_LANG\Test\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F8E6FBD-B2EA-40BB-B497-D85B9283BD04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="6300" yWindow="1650" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,8 +25,31 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
+  <si>
+    <t>asdadad</t>
+  </si>
+  <si>
+    <t>dasd</t>
+  </si>
+  <si>
+    <t>sadas</t>
+  </si>
+  <si>
+    <t>asd</t>
+  </si>
+  <si>
+    <t>asdas</t>
+  </si>
+  <si>
+    <t>as</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -56,7 +86,9 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{986704AB-D515-48A0-A921-3F321C14C394}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -330,13 +362,74 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="C6:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="6" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="J6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABD55385-4961-4F13-93CF-5EA9BED7FF12}">
+  <dimension ref="C8:K19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="8" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="K9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>